--- a/ForgotPassword_DataFile.xlsx
+++ b/ForgotPassword_DataFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rashids2\Documents\GitHub\CBIITQA-ICRC-KICKOFF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EC6F503-3876-425A-95F2-C1EF3F92ABD3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{099D0488-3CF4-431C-8128-CB3AAEA029D1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9048" xr2:uid="{9462DEA8-BBCA-409D-A9FA-8A1DB7738FD2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>password</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>iFGeFYmXIrWy72D5I5E8Dw==</t>
+  </si>
+  <si>
+    <t>confirm password</t>
   </si>
 </sst>
 </file>
@@ -399,7 +402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C752ED1C-B7CA-48EB-AD3C-004C4830B041}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -408,21 +411,31 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="64.5546875" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="62.77734375" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
     </row>

--- a/ForgotPassword_DataFile.xlsx
+++ b/ForgotPassword_DataFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rashids2\Documents\GitHub\CBIITQA-ICRC-KICKOFF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{099D0488-3CF4-431C-8128-CB3AAEA029D1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7C5F0FD4-DFD7-4F35-8FC0-086229F5940F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9048" xr2:uid="{9462DEA8-BBCA-409D-A9FA-8A1DB7738FD2}"/>
   </bookViews>
@@ -30,20 +30,20 @@
     <t>password</t>
   </si>
   <si>
-    <t>iFGeFYmXIrVXkUXHumJCLw==</t>
+    <t>confirm password</t>
   </si>
   <si>
-    <t>iFGeFYmXIrWy72D5I5E8Dw==</t>
+    <t>P@ssw0rd2</t>
   </si>
   <si>
-    <t>confirm password</t>
+    <t>P@ssw0rd1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,6 +55,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -77,10 +85,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -88,8 +97,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -405,7 +418,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -420,27 +433,33 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{DF0949C1-CDA0-44FD-AB50-3A21327FF62D}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{24C4ECC5-6623-4A14-A14A-031C5EA38CEF}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{B4C9F941-A990-46B9-B030-6ADB018D8B23}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{C5E25AC9-6347-4C1D-BEDB-77527F235322}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/ForgotPassword_DataFile.xlsx
+++ b/ForgotPassword_DataFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rashids2\Documents\GitHub\CBIITQA-ICRC-KICKOFF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7C5F0FD4-DFD7-4F35-8FC0-086229F5940F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B60A048E-60BB-4F83-AF16-2267799EF616}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9048" xr2:uid="{9462DEA8-BBCA-409D-A9FA-8A1DB7738FD2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
     <t>password</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>P@ssw0rd1</t>
+  </si>
+  <si>
+    <t>login password</t>
   </si>
 </sst>
 </file>
@@ -415,40 +418,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C752ED1C-B7CA-48EB-AD3C-004C4830B041}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="64.5546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="62.77734375" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="2"/>
+    <col min="3" max="3" width="55.5546875" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -458,8 +471,10 @@
     <hyperlink ref="B2" r:id="rId2" xr:uid="{24C4ECC5-6623-4A14-A14A-031C5EA38CEF}"/>
     <hyperlink ref="A3" r:id="rId3" xr:uid="{B4C9F941-A990-46B9-B030-6ADB018D8B23}"/>
     <hyperlink ref="B3" r:id="rId4" xr:uid="{C5E25AC9-6347-4C1D-BEDB-77527F235322}"/>
+    <hyperlink ref="C2" r:id="rId5" xr:uid="{52977F4B-75A1-4E4B-83BE-DA38BECB4B52}"/>
+    <hyperlink ref="C3" r:id="rId6" xr:uid="{6081C378-DC17-40EE-8242-BD7FCB9EE256}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>